--- a/TestResults/TestResults_v1.xlsx
+++ b/TestResults/TestResults_v1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
